--- a/data/panels.xlsx
+++ b/data/panels.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timbe\github\debtwatch\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B68FA6-9F6E-470B-837B-DE94B9BB777A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CA4C49-2659-426B-BB40-14CD6998FFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,9 +117,6 @@
     <t>Ratio dette publique sur PIB</t>
   </si>
   <si>
-    <t>Différence entre les recettes et les dépenses publiques</t>
-  </si>
-  <si>
     <t>Charge d'intérêts nette et taux souverain moyen pondéré</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>Interest payment</t>
   </si>
   <si>
-    <t>Tax and non tax revenues minus public spending</t>
-  </si>
-  <si>
     <t>Net interest payment and AWSR</t>
   </si>
   <si>
@@ -238,6 +232,12 @@
   </si>
   <si>
     <t>Ratio of gross financial liabilities, according to Maastricht definition, for all levels of public administration (central government, local authorities and social administrations) (UDGG) to GDP (current prices) UVGD ; d* is the public debt target.</t>
+  </si>
+  <si>
+    <t>Différence entre les recettes et les dépenses publiques primaires</t>
+  </si>
+  <si>
+    <t>Tax and non tax revenues minus primary public spending</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1087,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="105.1796875" defaultRowHeight="44" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1133,7 +1133,7 @@
         <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.35">
@@ -1153,16 +1153,16 @@
         <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.35">
@@ -1170,10 +1170,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>20</v>
@@ -1182,19 +1182,19 @@
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.35">
@@ -1202,28 +1202,28 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.35">
@@ -1234,7 +1234,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>17</v>
@@ -1243,19 +1243,19 @@
         <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.35">
@@ -1272,19 +1272,19 @@
         <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.35">
@@ -1292,28 +1292,28 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.35">
@@ -1330,19 +1330,19 @@
         <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.35">
@@ -1350,7 +1350,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
@@ -1359,19 +1359,19 @@
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
